--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Gas6-Tyro3.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Gas6-Tyro3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.8666310590329</v>
+        <v>20.97917533333333</v>
       </c>
       <c r="H2">
-        <v>15.8666310590329</v>
+        <v>62.93752600000001</v>
       </c>
       <c r="I2">
-        <v>0.2028614907447242</v>
+        <v>0.2451892257562263</v>
       </c>
       <c r="J2">
-        <v>0.2028614907447242</v>
+        <v>0.2451892257562263</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.92724119125664</v>
+        <v>0.448064</v>
       </c>
       <c r="N2">
-        <v>2.92724119125664</v>
+        <v>1.344192</v>
       </c>
       <c r="O2">
-        <v>0.9020177136085962</v>
+        <v>0.113372348992564</v>
       </c>
       <c r="P2">
-        <v>0.9020177136085962</v>
+        <v>0.113372348992564</v>
       </c>
       <c r="Q2">
-        <v>46.44545600247307</v>
+        <v>9.400013216554667</v>
       </c>
       <c r="R2">
-        <v>46.44545600247307</v>
+        <v>84.60011894899201</v>
       </c>
       <c r="S2">
-        <v>0.1829846580607875</v>
+        <v>0.02779767847165146</v>
       </c>
       <c r="T2">
-        <v>0.1829846580607875</v>
+        <v>0.02779767847165146</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.8666310590329</v>
+        <v>20.97917533333333</v>
       </c>
       <c r="H3">
-        <v>15.8666310590329</v>
+        <v>62.93752600000001</v>
       </c>
       <c r="I3">
-        <v>0.2028614907447242</v>
+        <v>0.2451892257562263</v>
       </c>
       <c r="J3">
-        <v>0.2028614907447242</v>
+        <v>0.2451892257562263</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.317973561285159</v>
+        <v>2.951476</v>
       </c>
       <c r="N3">
-        <v>0.317973561285159</v>
+        <v>8.854428</v>
       </c>
       <c r="O3">
-        <v>0.09798228639140376</v>
+        <v>0.7468035082380574</v>
       </c>
       <c r="P3">
-        <v>0.09798228639140376</v>
+        <v>0.7468035082380574</v>
       </c>
       <c r="Q3">
-        <v>5.045169183438405</v>
+        <v>61.91953249612533</v>
       </c>
       <c r="R3">
-        <v>5.045169183438405</v>
+        <v>557.2757924651281</v>
       </c>
       <c r="S3">
-        <v>0.01987683268393667</v>
+        <v>0.1831081739769228</v>
       </c>
       <c r="T3">
-        <v>0.01987683268393667</v>
+        <v>0.1831081739769228</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>58.3598083879008</v>
+        <v>20.97917533333333</v>
       </c>
       <c r="H4">
-        <v>58.3598083879008</v>
+        <v>62.93752600000001</v>
       </c>
       <c r="I4">
-        <v>0.7461544725593198</v>
+        <v>0.2451892257562263</v>
       </c>
       <c r="J4">
-        <v>0.7461544725593198</v>
+        <v>0.2451892257562263</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.92724119125664</v>
+        <v>0.5526053333333333</v>
       </c>
       <c r="N4">
-        <v>2.92724119125664</v>
+        <v>1.657816</v>
       </c>
       <c r="O4">
-        <v>0.9020177136085962</v>
+        <v>0.1398241427693786</v>
       </c>
       <c r="P4">
-        <v>0.9020177136085962</v>
+        <v>0.1398241427693786</v>
       </c>
       <c r="Q4">
-        <v>170.833235026908</v>
+        <v>11.59320417813511</v>
       </c>
       <c r="R4">
-        <v>170.833235026908</v>
+        <v>104.338837603216</v>
       </c>
       <c r="S4">
-        <v>0.6730445513367856</v>
+        <v>0.03428337330765197</v>
       </c>
       <c r="T4">
-        <v>0.6730445513367856</v>
+        <v>0.03428337330765197</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>58.3598083879008</v>
+        <v>59.05285266666667</v>
       </c>
       <c r="H5">
-        <v>58.3598083879008</v>
+        <v>177.158558</v>
       </c>
       <c r="I5">
-        <v>0.7461544725593198</v>
+        <v>0.6901664624076501</v>
       </c>
       <c r="J5">
-        <v>0.7461544725593198</v>
+        <v>0.6901664624076501</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.317973561285159</v>
+        <v>0.448064</v>
       </c>
       <c r="N5">
-        <v>0.317973561285159</v>
+        <v>1.344192</v>
       </c>
       <c r="O5">
-        <v>0.09798228639140376</v>
+        <v>0.113372348992564</v>
       </c>
       <c r="P5">
-        <v>0.09798228639140376</v>
+        <v>0.113372348992564</v>
       </c>
       <c r="Q5">
-        <v>18.55687610902031</v>
+        <v>26.45945737723734</v>
       </c>
       <c r="R5">
-        <v>18.55687610902031</v>
+        <v>238.135116395136</v>
       </c>
       <c r="S5">
-        <v>0.07310992122253408</v>
+        <v>0.07824579303904344</v>
       </c>
       <c r="T5">
-        <v>0.07310992122253408</v>
+        <v>0.07824579303904344</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.98767108131373</v>
+        <v>59.05285266666667</v>
       </c>
       <c r="H6">
-        <v>3.98767108131373</v>
+        <v>177.158558</v>
       </c>
       <c r="I6">
-        <v>0.05098403669595606</v>
+        <v>0.6901664624076501</v>
       </c>
       <c r="J6">
-        <v>0.05098403669595606</v>
+        <v>0.6901664624076501</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.92724119125664</v>
+        <v>2.951476</v>
       </c>
       <c r="N6">
-        <v>2.92724119125664</v>
+        <v>8.854428</v>
       </c>
       <c r="O6">
-        <v>0.9020177136085962</v>
+        <v>0.7468035082380574</v>
       </c>
       <c r="P6">
-        <v>0.9020177136085962</v>
+        <v>0.7468035082380574</v>
       </c>
       <c r="Q6">
-        <v>11.67287504640446</v>
+        <v>174.2930773772027</v>
       </c>
       <c r="R6">
-        <v>11.67287504640446</v>
+        <v>1568.637696394824</v>
       </c>
       <c r="S6">
-        <v>0.04598850421102305</v>
+        <v>0.5154187353942825</v>
       </c>
       <c r="T6">
-        <v>0.04598850421102305</v>
+        <v>0.5154187353942825</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.98767108131373</v>
+        <v>59.05285266666667</v>
       </c>
       <c r="H7">
-        <v>3.98767108131373</v>
+        <v>177.158558</v>
       </c>
       <c r="I7">
-        <v>0.05098403669595606</v>
+        <v>0.6901664624076501</v>
       </c>
       <c r="J7">
-        <v>0.05098403669595606</v>
+        <v>0.6901664624076501</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.317973561285159</v>
+        <v>0.5526053333333333</v>
       </c>
       <c r="N7">
-        <v>0.317973561285159</v>
+        <v>1.657816</v>
       </c>
       <c r="O7">
-        <v>0.09798228639140376</v>
+        <v>0.1398241427693786</v>
       </c>
       <c r="P7">
-        <v>0.09798228639140376</v>
+        <v>0.1398241427693786</v>
       </c>
       <c r="Q7">
-        <v>1.267973974959168</v>
+        <v>32.63292133214755</v>
       </c>
       <c r="R7">
-        <v>1.267973974959168</v>
+        <v>293.696291989328</v>
       </c>
       <c r="S7">
-        <v>0.004995532484933006</v>
+        <v>0.09650193397432422</v>
       </c>
       <c r="T7">
-        <v>0.004995532484933006</v>
+        <v>0.09650193397432422</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>5.531174333333333</v>
+      </c>
+      <c r="H8">
+        <v>16.593523</v>
+      </c>
+      <c r="I8">
+        <v>0.06464431183612354</v>
+      </c>
+      <c r="J8">
+        <v>0.06464431183612354</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.448064</v>
+      </c>
+      <c r="N8">
+        <v>1.344192</v>
+      </c>
+      <c r="O8">
+        <v>0.113372348992564</v>
+      </c>
+      <c r="P8">
+        <v>0.113372348992564</v>
+      </c>
+      <c r="Q8">
+        <v>2.478320096490667</v>
+      </c>
+      <c r="R8">
+        <v>22.304880868416</v>
+      </c>
+      <c r="S8">
+        <v>0.007328877481869137</v>
+      </c>
+      <c r="T8">
+        <v>0.007328877481869137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5.531174333333333</v>
+      </c>
+      <c r="H9">
+        <v>16.593523</v>
+      </c>
+      <c r="I9">
+        <v>0.06464431183612354</v>
+      </c>
+      <c r="J9">
+        <v>0.06464431183612354</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.951476</v>
+      </c>
+      <c r="N9">
+        <v>8.854428</v>
+      </c>
+      <c r="O9">
+        <v>0.7468035082380574</v>
+      </c>
+      <c r="P9">
+        <v>0.7468035082380574</v>
+      </c>
+      <c r="Q9">
+        <v>16.32512829664933</v>
+      </c>
+      <c r="R9">
+        <v>146.926154669844</v>
+      </c>
+      <c r="S9">
+        <v>0.04827659886685204</v>
+      </c>
+      <c r="T9">
+        <v>0.04827659886685204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5.531174333333333</v>
+      </c>
+      <c r="H10">
+        <v>16.593523</v>
+      </c>
+      <c r="I10">
+        <v>0.06464431183612354</v>
+      </c>
+      <c r="J10">
+        <v>0.06464431183612354</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.5526053333333333</v>
+      </c>
+      <c r="N10">
+        <v>1.657816</v>
+      </c>
+      <c r="O10">
+        <v>0.1398241427693786</v>
+      </c>
+      <c r="P10">
+        <v>0.1398241427693786</v>
+      </c>
+      <c r="Q10">
+        <v>3.056556436196444</v>
+      </c>
+      <c r="R10">
+        <v>27.509007925768</v>
+      </c>
+      <c r="S10">
+        <v>0.009038835487402367</v>
+      </c>
+      <c r="T10">
+        <v>0.009038835487402367</v>
       </c>
     </row>
   </sheetData>
